--- a/bank statement generator/bank_statements/statement_113.xlsx
+++ b/bank statement generator/bank_statements/statement_113.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 06.02.2024</t>
+          <t>KONTOSTAND AM 28.11.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,146 +759,130 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>09.02.</t>
+          <t>29.11.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>10.02.</t>
+          <t>30.11.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>ZALANDO MKTPLC EU GRRLVI</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 7969566</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>175,31-</t>
+          <t>83,02-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>12.02.</t>
+          <t>03.12.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>13.02.</t>
+          <t>04.12.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Hildburghausen</t>
+          <t>ZALANDO MKTPLC EU OLFPBX</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>36,07-</t>
+          <t>137,70-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>13.02.</t>
+          <t>04.12.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>14.02.</t>
+          <t>05.12.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG SHELL TANKSTELLE</t>
+          <t>RECHNUNG VODAFONE GMBH 84471865</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>54,75-</t>
+          <t>38,04-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>16.02.</t>
+          <t>06.12.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>17.02.</t>
+          <t>07.12.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL EQGDON</t>
+          <t>KARTENZAHLUNG JET TANKSTELLE</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>90,44-</t>
+          <t>40,92-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>20.02.</t>
+          <t>10.12.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>21.02.</t>
+          <t>11.12.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-73709920</t>
+          <t>BEITRAG Allianz SE K-33842487</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>53,66-</t>
+          <t>57,37-</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>24.02.</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>25.02.</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>BURGER KING Northeim</t>
-        </is>
-      </c>
-      <c r="E11" s="17" t="inlineStr">
-        <is>
-          <t>28,55-</t>
-        </is>
-      </c>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="12" t="n"/>
     </row>
     <row r="12" ht="27.75" customHeight="1">
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 26.02.2024</t>
+          <t>KONTOSTAND AM 12.12.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>438,78-</t>
+          <t>357,05-</t>
         </is>
       </c>
     </row>
@@ -906,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 03.03.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 18.12.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
